--- a/teme_curs_Python/INFO_COVID19.xlsx
+++ b/teme_curs_Python/INFO_COVID19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1799 +434,1700 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr. crt.</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nr. crt.</t>
+          <t>Județ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Județ</t>
+          <t>01.03</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>01.03</t>
+          <t>02.03</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>02.03</t>
+          <t>03.03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03.03</t>
+          <t>04.03</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>04.03</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>05.03</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.</t>
+          <t>Alba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alba</t>
+          <t>51.477</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.477</t>
+          <t>51.599</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>51.599</t>
+          <t>51.717</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>51.717</t>
+          <t>51.827</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>51.827</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>51.917</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.</t>
+          <t>Arad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Arad</t>
+          <t>65.561</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.561</t>
+          <t>65.719</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.719</t>
+          <t>65.856</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.856</t>
+          <t>65.961</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>65.961</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>66.061</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.</t>
+          <t>Argeș</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Argeș</t>
+          <t>72.119</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72.119</t>
+          <t>72.221</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.221</t>
+          <t>72.345</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.345</t>
+          <t>72.460</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>72.460</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>72.538</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.</t>
+          <t>Bacău</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bacău</t>
+          <t>59.129</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>59.129</t>
+          <t>59.215</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>59.215</t>
+          <t>59.276</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.276</t>
+          <t>59.333</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>59.333</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>59.377</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.</t>
+          <t>Bihor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bihor</t>
+          <t>78.543</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.543</t>
+          <t>78.642</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.642</t>
+          <t>78.758</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>78.758</t>
+          <t>78.851</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>78.851</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>78.913</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.</t>
+          <t>Bistrița-Năsăud</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bistrița-Năsăud</t>
+          <t>28.832</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.832</t>
+          <t>28.870</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.870</t>
+          <t>28.918</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28.918</t>
+          <t>28.957</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>28.957</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>28.992</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.</t>
+          <t>Botoșani</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Botoșani</t>
+          <t>34.733</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34.733</t>
+          <t>34.762</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.762</t>
+          <t>34.797</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>34.797</t>
+          <t>34.837</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>34.837</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>34.875</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.</t>
+          <t>Brașov</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brașov</t>
+          <t>102.962</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>102.962</t>
+          <t>103.198</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>103.198</t>
+          <t>103.367</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>103.367</t>
+          <t>103.559</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>103.559</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>103.694</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9.</t>
+          <t>Brăila</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brăila</t>
+          <t>30.183</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.183</t>
+          <t>30.239</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.239</t>
+          <t>30.294</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>30.294</t>
+          <t>30.359</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30.359</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>30.392</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10.</t>
+          <t>Buzău</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Buzău</t>
+          <t>38.758</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>38.758</t>
+          <t>38.851</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.851</t>
+          <t>38.922</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>38.922</t>
+          <t>39.024</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>39.024</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>39.098</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11.</t>
+          <t>Caraș-Severin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Caraș-Severin</t>
+          <t>28.524</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.524</t>
+          <t>28.615</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28.615</t>
+          <t>28.696</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28.696</t>
+          <t>28.771</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28.771</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>28.838</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.</t>
+          <t>Călărași</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Călărași</t>
+          <t>24.692</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24.692</t>
+          <t>24.739</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.739</t>
+          <t>24.777</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>24.777</t>
+          <t>24.815</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24.815</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>24.845</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13.</t>
+          <t>Cluj</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cluj</t>
+          <t>147.890</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>147.890</t>
+          <t>148.425</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>148.425</t>
+          <t>149.102</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>149.102</t>
+          <t>149.538</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>149.538</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>149.984</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14.</t>
+          <t>Constanța</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Constanța</t>
+          <t>110.448</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>110.448</t>
+          <t>110.693</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>110.693</t>
+          <t>110.942</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>110.942</t>
+          <t>111.070</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111.070</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>111.244</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15.</t>
+          <t>Covasna</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Covasna</t>
+          <t>18.697</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.697</t>
+          <t>18.738</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18.738</t>
+          <t>18.790</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18.790</t>
+          <t>18.860</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18.860</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>18.888</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16.</t>
+          <t>Dâmbovița</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dâmbovița</t>
+          <t>50.116</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50.116</t>
+          <t>50.182</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50.182</t>
+          <t>50.247</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50.247</t>
+          <t>50.308</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>50.308</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>50.363</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17.</t>
+          <t>Dolj</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dolj</t>
+          <t>68.306</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>68.306</t>
+          <t>68.547</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68.547</t>
+          <t>68.752</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>68.752</t>
+          <t>68.915</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>68.915</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>69.078</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18.</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18.</t>
+          <t>Galați</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galați</t>
+          <t>60.723</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60.723</t>
+          <t>60.875</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>60.875</t>
+          <t>60.961</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>60.961</t>
+          <t>61.028</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>61.028</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>61.195</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19.</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19.</t>
+          <t>Giurgiu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Giurgiu</t>
+          <t>27.251</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27.251</t>
+          <t>27.305</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27.305</t>
+          <t>27.378</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>27.378</t>
+          <t>27.409</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27.409</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
           <t>27.465</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20.</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20.</t>
+          <t>Gorj</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gorj</t>
+          <t>21.175</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.175</t>
+          <t>21.216</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21.216</t>
+          <t>21.244</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21.244</t>
+          <t>21.269</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21.269</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>21.292</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21.</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21.</t>
+          <t>Harghita</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Harghita</t>
+          <t>20.974</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20.974</t>
+          <t>20.992</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20.992</t>
+          <t>21.008</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21.008</t>
+          <t>21.030</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21.030</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>21.047</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22.</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22.</t>
+          <t>Hunedoara</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hunedoara</t>
+          <t>54.530</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>54.530</t>
+          <t>54.713</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>54.713</t>
+          <t>54.867</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>54.867</t>
+          <t>54.998</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>54.998</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
           <t>55.032</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23.</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23.</t>
+          <t>Ialomița</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ialomița</t>
+          <t>26.282</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26.282</t>
+          <t>26.334</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26.334</t>
+          <t>26.371</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>26.371</t>
+          <t>26.414</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26.414</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>26.433</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24.</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24.</t>
+          <t>Iași</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Iași</t>
+          <t>105.349</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>105.349</t>
+          <t>105.586</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>105.586</t>
+          <t>105.816</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>105.816</t>
+          <t>105.992</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>105.992</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>106.138</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25.</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25.</t>
+          <t>Ilfov</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ilfov</t>
+          <t>113.125</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>113.125</t>
+          <t>113.416</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>113.416</t>
+          <t>113.647</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>113.647</t>
+          <t>113.927</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>113.927</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
           <t>114.061</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26.</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26.</t>
+          <t>Maramureș</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Maramureș</t>
+          <t>48.652</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>48.652</t>
+          <t>48.706</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>48.706</t>
+          <t>48.760</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>48.760</t>
+          <t>48.792</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>48.792</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
           <t>48.841</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27.</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27.</t>
+          <t>Mehedinți</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mehedinți</t>
+          <t>20.885</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20.885</t>
+          <t>20.924</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20.924</t>
+          <t>20.972</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20.972</t>
+          <t>21.016</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21.016</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t>21.059</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28.</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28.</t>
+          <t>Mureș</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mureș</t>
+          <t>60.109</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>60.109</t>
+          <t>60.232</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>60.232</t>
+          <t>60.440</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>60.440</t>
+          <t>60.558</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>60.558</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
           <t>60.657</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29.</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29.</t>
+          <t>Neamț</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Neamț</t>
+          <t>44.513</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44.513</t>
+          <t>44.553</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>44.553</t>
+          <t>44.583</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>44.583</t>
+          <t>44.602</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>44.602</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
           <t>44.636</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30.</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30.</t>
+          <t>Olt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Olt</t>
+          <t>37.000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>37.000</t>
+          <t>37.112</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>37.112</t>
+          <t>37.213</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>37.213</t>
+          <t>37.294</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>37.294</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
           <t>37.369</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31.</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31.</t>
+          <t>Prahova</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Prahova</t>
+          <t>93.695</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.695</t>
+          <t>93.956</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.956</t>
+          <t>94.160</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>94.160</t>
+          <t>94.388</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>94.388</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
           <t>94.595</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32.</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>32.</t>
+          <t>Satu Mare</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Satu Mare</t>
+          <t>31.444</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31.444</t>
+          <t>31.496</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>31.496</t>
+          <t>31.537</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>31.537</t>
+          <t>31.571</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31.571</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
           <t>31.612</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33.</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>33.</t>
+          <t>Sălaj</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sălaj</t>
+          <t>25.699</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25.699</t>
+          <t>25.741</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25.741</t>
+          <t>25.769</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>25.769</t>
+          <t>25.811</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25.811</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t>25.832</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34.</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>34.</t>
+          <t>Sibiu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sibiu</t>
+          <t>73.213</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>73.213</t>
+          <t>73.614</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>73.614</t>
+          <t>73.799</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>73.799</t>
+          <t>73.977</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>73.977</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
           <t>74.128</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35.</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>35.</t>
+          <t>Suceava</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Suceava</t>
+          <t>56.702</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>56.702</t>
+          <t>56.745</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>56.745</t>
+          <t>56.793</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>56.793</t>
+          <t>56.824</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>56.824</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
           <t>56.864</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36.</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>36.</t>
+          <t>Teleorman</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Teleorman</t>
+          <t>32.400</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>32.400</t>
+          <t>32.506</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>32.506</t>
+          <t>32.598</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>32.598</t>
+          <t>32.686</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>32.686</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
           <t>32.765</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37.</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>37.</t>
+          <t>Timiș</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Timiș</t>
+          <t>141.786</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>141.786</t>
+          <t>142.130</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>142.130</t>
+          <t>142.451</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>142.451</t>
+          <t>142.737</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>142.737</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
           <t>142.960</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38.</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>38.</t>
+          <t>Tulcea</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tulcea</t>
+          <t>20.061</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20.061</t>
+          <t>20.085</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20.085</t>
+          <t>20.100</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>20.100</t>
+          <t>20.110</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20.110</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
           <t>20.119</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39.</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39.</t>
+          <t>Vaslui</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vaslui</t>
+          <t>35.156</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>35.156</t>
+          <t>35.238</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>35.238</t>
+          <t>35.288</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>35.288</t>
+          <t>35.351</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>35.351</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
           <t>35.402</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40.</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>40.</t>
+          <t>Vâlcea</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Vâlcea</t>
+          <t>39.346</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>39.346</t>
+          <t>39.456</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>39.456</t>
+          <t>39.529</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>39.529</t>
+          <t>39.610</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>39.610</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>39.658</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41.</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>41.</t>
+          <t>Vrancea</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vrancea</t>
+          <t>25.314</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>25.314</t>
+          <t>25.362</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25.362</t>
+          <t>25.405</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>25.405</t>
+          <t>25.420</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>25.420</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
           <t>25.464</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42.</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>42.</t>
+          <t>Mun. București</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mun. București</t>
+          <t>507.768</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>507.768</t>
+          <t>509.905</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>509.905</t>
+          <t>510.878</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>510.878</t>
+          <t>513.528</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>513.528</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
           <t>515.142</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43.</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43.</t>
+          <t>Din străinătate**</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Din străinătate**</t>
+          <t>4.082</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.082</t>
+          <t>4.099</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.099</t>
+          <t>4.102</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.102</t>
+          <t>4.111</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4.111</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
           <t>4.128</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44.</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>44.</t>
+          <t>Cazuri noi nealocate pe județe</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cazuri noi nealocate pe județe</t>
+          <t xml:space="preserve">    3.741*</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3.741*</t>
+          <t>3.225*</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.225*</t>
+          <t xml:space="preserve">    3.505*</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    3.505*</t>
+          <t xml:space="preserve">    2.434*</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    2.434*</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
           <t xml:space="preserve">    2.178*</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOTAL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2.741.945</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.748.777</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2.754.730</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.760.332</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2.765.169</t>
         </is>
       </c>
     </row>
